--- a/code/excels/items/artifact_items.xlsx
+++ b/code/excels/items/artifact_items.xlsx
@@ -153,7 +153,7 @@
     <t>item_lua</t>
   </si>
   <si>
-    <t>npc/item/artifact/item_artifact_base</t>
+    <t>npc/items/artifact/item_artifact_base</t>
   </si>
   <si>
     <t>item_refresher_shard</t>
@@ -2014,11 +2014,11 @@
   <dimension ref="A1:AB57"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane xSplit="3" ySplit="2" topLeftCell="D36" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="2" topLeftCell="D3" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="A56" sqref="A56"/>
+      <selection pane="bottomRight" activeCell="D1" sqref="D$1:D$1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="28.9083333333333" defaultRowHeight="14"/>
